--- a/温度-时间.xlsx
+++ b/温度-时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Later Q\Desktop\毕业设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8792B4EF-C819-461D-8BD2-A836F6B0FBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA2C66B-E4BB-4D7A-90BB-8929A0EDA441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B8D8B62-6334-442C-AC7F-ABE7E7E949CD}"/>
   </bookViews>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75,9 +71,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -111,6 +110,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>目标温度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>70</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>℃</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -142,17 +174,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.3366994697607975E-2"/>
-          <c:y val="9.14470306596291E-2"/>
-          <c:w val="0.93645786140594622"/>
-          <c:h val="0.77229557843731067"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -185,255 +207,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$86</c:f>
+              <c:f>Sheet1!$E$3:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>26.434000000000001</c:v>
+                  <c:v>27.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.562999999999999</c:v>
+                  <c:v>28.234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.591999999999999</c:v>
+                  <c:v>29.181000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.978999999999999</c:v>
+                  <c:v>31.318000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.191000000000003</c:v>
+                  <c:v>33.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.648000000000003</c:v>
+                  <c:v>35.774999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.54</c:v>
+                  <c:v>38.857999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.15</c:v>
+                  <c:v>40.872999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.47</c:v>
+                  <c:v>42.399000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.759</c:v>
+                  <c:v>44.963000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.316000000000003</c:v>
+                  <c:v>46.703000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65.14</c:v>
+                  <c:v>48.884999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66.207999999999998</c:v>
+                  <c:v>50.548999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67.123999999999995</c:v>
+                  <c:v>52.311999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67.611999999999995</c:v>
+                  <c:v>53.707999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.7</c:v>
+                  <c:v>55.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.710999999999999</c:v>
+                  <c:v>56.378999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>57.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.676000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.249000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.652999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62.179000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62.561</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.887999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64.742999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.537000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.688999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66.239000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66.421999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66.91</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.429000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67.528000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68.100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>68.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>68.406000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68.772000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68.986000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>68.894000000000005</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>68.956000000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69.260999999999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>69.474000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>69.536000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="45">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>69.78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>69.382999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69.504999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>69.290999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.626999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>69.412999999999997</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>69.81</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>69.840999999999994</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>69.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>69.81</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>70.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>69.962999999999994</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>69.992999999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.177000000000007</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>69.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>69.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>69.971000000000004</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>69.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>69.962999999999994</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>70.146000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>69.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>69.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70.146000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>69.887</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>69.870999999999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>70.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>70.177000000000007</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>69.962999999999994</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>69.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>70.177000000000007</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>70.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>69.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>69.992999999999995</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>70.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>69.962999999999994</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>69.932000000000002</c:v>
+                  <c:v>69.718999999999994</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.177000000000007</c:v>
+                  <c:v>69.504999999999995</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>70.540000000000006</c:v>
+                  <c:v>69.673000000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>69.932000000000002</c:v>
+                  <c:v>69.566000000000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>69.992999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>69.81</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69.81</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>69.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69.78</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69.748999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69.81</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69.78</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.825999999999993</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69.78</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>69.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>69.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>69.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>69.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>70.540000000000006</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="75">
+                  <c:v>70.206999999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>70.450999999999993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>70.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70.97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>70.512</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>70.39</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>69.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>70.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69.718999999999994</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>69.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>69.688000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>69.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>69.718999999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>69.870999999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>69.718999999999994</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>69.870999999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>69.763999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>69.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>69.870999999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>69.962999999999994</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>69.962999999999994</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>70.146000000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>69.962999999999994</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="95">
+                  <c:v>69.718999999999994</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>69.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>69.870999999999995</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>69.947999999999993</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>70.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="98">
+                  <c:v>69.870999999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>69.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70.114999999999995</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>69.870999999999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>69.992999999999995</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>70.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>69.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>69.962999999999994</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>70.146000000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>69.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>69.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>70.146000000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>70.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>69.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>69.992999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,7 +517,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECD7-4F23-8779-EEB4667BCA6A}"/>
+              <c16:uniqueId val="{00000000-8183-44B9-9BCC-B9A97922F7C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -455,11 +531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1784518335"/>
-        <c:axId val="1858870047"/>
+        <c:axId val="1620582816"/>
+        <c:axId val="1255456144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784518335"/>
+        <c:axId val="1620582816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1858870047"/>
+        <c:crossAx val="1255456144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -509,7 +585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1858870047"/>
+        <c:axId val="1255456144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +636,1201 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784518335"/>
+        <c:crossAx val="1620582816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>目标温度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>50</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>℃</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$141:$D$240</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>27.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.364999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.271999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.813000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.621000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.956000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.360999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.551000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.146999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.473999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.719000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.871000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.512</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.183999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.122999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>47.435000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47.39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47.496000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.320999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.863</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.198999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48.87</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48.442999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49.99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49.281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49.145000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.296999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49.572000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.42</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.511000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.357999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49.42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>49.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49.511000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49.755000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.91</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49.587000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50.91</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>49.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>50.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>49.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.183</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>50.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49.572000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50.213000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>49.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>50.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>50.122</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>49.633000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>49.969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>50.183</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50.183</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50.183</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>49.755000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>49.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>49.755000000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>49.771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50.305</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>49.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>50.305</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>49.771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>50.305</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49.762999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>50.305</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>49.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>50.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>50.305</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49.664000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B66C-4E91-B90B-CEFE17C66F8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1552983200"/>
+        <c:axId val="1555915696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1552983200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555915696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1555915696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552983200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>目标温度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>60</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>℃</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$286:$D$385</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>27.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.637999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.887999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.146999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.220999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.648000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.747</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.180999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.67</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.822000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.768999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.555</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.256999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.112000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.837000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57.631</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>58.119</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>57.783000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58.15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.119</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58.698999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58.942999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>59.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>59.96</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.371000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59.264000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>59.156999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59.615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59.279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59.722000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59.371000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>59.813000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59.462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59.493000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60.12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.523000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59.63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60.134</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>59.645000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>60.164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>59.706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60.164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59.706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59.844000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>59.706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>59.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>59.706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>59.89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>59.752000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>59.92</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60.119</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>59.905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60.103000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>59.905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.103000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>59.706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>60.103000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>59.706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60.134</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>59.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>60.140999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>59.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>60.279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>59.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>60.256</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>59.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>60.256</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>59.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>60.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>59.829000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>60.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>59.829000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>60.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>59.829000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>59.973999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>59.829000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54B0-418A-A32E-D99D11C8E62F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1632296208"/>
+        <c:axId val="1550183568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1632296208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550183568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1550183568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632296208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -656,6 +1926,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1159,27 +2509,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5AEECF-915F-4A0C-952D-8B443DB6AE5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310A0B7A-BFFE-4FBE-A45E-E7743ABD7E8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,6 +3548,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2253A730-D715-4523-9492-F63368BF9B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C106199B-BEC6-4AA5-9E73-AD37855988B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1497,422 +3925,2403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F4DB7-FF7F-4F80-B763-7B184C96DB2A}">
-  <dimension ref="G5:G86"/>
+  <dimension ref="C3:E388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286:D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G5">
-        <v>26.434000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G6">
-        <v>29.562999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G7">
-        <v>35.591999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G8">
-        <v>42.978999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G9">
-        <v>47.191000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G10">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>27.38</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>28.234999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>29.181000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>31.318000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>33.76</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>35.774999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>38.857999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>40.872999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>42.399000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>44.963000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>46.703000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>48.884999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>50.548999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>52.311999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>53.707999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>56.378999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>57.81</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>58.676000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>59.249000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>60.652999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>62.179000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>62.561</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>63.887999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>64.72</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>64.742999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>64.896000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>65.537000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>65.688999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>66.239000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>66.421999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>66.91</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>67.429000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>67.528000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>67.734999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>67.978999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>68.100999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>68.314999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>68.406000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>68.772000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>68.650000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>68.986000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>68.894000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>69.78</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>69.382999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <v>69.504999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <v>69.290999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
+        <v>69.626999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <v>69.412999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <v>69.718999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
+        <v>69.504999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <v>69.673000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <v>69.566000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>69.992999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
+        <v>69.81</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
+        <v>69.902000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <v>69.81</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
+        <v>69.840999999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1">
+        <v>69.78</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
+        <v>69.840999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
+        <v>69.748999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
+        <v>69.840999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <v>69.81</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>69.78</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <v>69.825999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
+        <v>69.78</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
+        <v>69.840999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
+        <v>69.840999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1">
+        <v>69.902000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
+        <v>69.840999999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1">
+        <v>70.540000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
+        <v>70.206999999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1">
+        <v>70.450999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1">
+        <v>70.540000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1">
+        <v>70.97</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1">
+        <v>70.512</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1">
+        <v>70.39</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1">
+        <v>69.924999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
+        <v>70.239999999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
+        <v>69.718999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1">
+        <v>69.932000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D88" s="1"/>
+      <c r="E88" s="1">
+        <v>69.688000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D89" s="1"/>
+      <c r="E89" s="1">
+        <v>69.840999999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D90" s="1"/>
+      <c r="E90" s="1">
+        <v>69.718999999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D91" s="1"/>
+      <c r="E91" s="1">
+        <v>69.870999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D92" s="1"/>
+      <c r="E92" s="1">
+        <v>69.718999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1">
+        <v>69.870999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1">
+        <v>69.763999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D95" s="1"/>
+      <c r="E95" s="1">
+        <v>69.932000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1">
+        <v>69.870999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D97" s="1"/>
+      <c r="E97" s="1">
+        <v>69.962999999999994</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D98" s="1"/>
+      <c r="E98" s="1">
+        <v>69.718999999999994</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="1"/>
+      <c r="E99" s="1">
+        <v>69.840999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D100" s="1"/>
+      <c r="E100" s="1">
+        <v>69.870999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D101" s="1"/>
+      <c r="E101" s="1">
+        <v>69.870999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D102" s="1"/>
+      <c r="E102" s="1">
+        <v>69.932000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>27.35</v>
+      </c>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1">
+        <v>27.869</v>
+      </c>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>28.234999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>29.364999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>30.494</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>31.532</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>33.271999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>34.279000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>9</v>
+      </c>
+      <c r="D149">
+        <v>35.164000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>36.813000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>11</v>
+      </c>
+      <c r="D151">
+        <v>37.545000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>39.72</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <v>39.621000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>14</v>
+      </c>
+      <c r="D154">
+        <v>40.956000000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>15</v>
+      </c>
+      <c r="D155">
+        <v>41.360999999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>16</v>
+      </c>
+      <c r="D156">
+        <v>42.551000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>17</v>
+      </c>
+      <c r="D157">
+        <v>43.146999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>18</v>
+      </c>
+      <c r="D158">
+        <v>43.741999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>19</v>
+      </c>
+      <c r="D159">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>20</v>
+      </c>
+      <c r="D160">
+        <v>44.473999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>21</v>
+      </c>
+      <c r="D161">
+        <v>44.719000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>22</v>
+      </c>
+      <c r="D162">
+        <v>44.871000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>23</v>
+      </c>
+      <c r="D163">
+        <v>45.512</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>24</v>
+      </c>
+      <c r="D164">
+        <v>45.481999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>25</v>
+      </c>
+      <c r="D165">
+        <v>46.183999999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>26</v>
+      </c>
+      <c r="D166">
+        <v>46.122999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>27</v>
+      </c>
+      <c r="D167">
+        <v>46.84</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>28</v>
+      </c>
+      <c r="D168">
+        <v>46.718000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <v>29</v>
+      </c>
+      <c r="D169">
+        <v>47.435000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <v>30</v>
+      </c>
+      <c r="D170">
+        <v>47.39</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <v>31</v>
+      </c>
+      <c r="D171">
+        <v>47.893000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>32</v>
+      </c>
+      <c r="D172">
+        <v>47.496000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>33</v>
+      </c>
+      <c r="D173">
+        <v>48.320999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>34</v>
+      </c>
+      <c r="D174">
+        <v>47.863</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>35</v>
+      </c>
+      <c r="D175">
+        <v>48.655999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>36</v>
+      </c>
+      <c r="D176">
+        <v>48.198999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>37</v>
+      </c>
+      <c r="D177">
+        <v>48.87</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>38</v>
+      </c>
+      <c r="D178">
+        <v>48.442999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>39</v>
+      </c>
+      <c r="D179">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C180">
+        <v>40</v>
+      </c>
+      <c r="D180">
+        <v>48.655999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C181">
+        <v>41</v>
+      </c>
+      <c r="D181">
+        <v>49.281999999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C182">
+        <v>42</v>
+      </c>
+      <c r="D182">
+        <v>49.145000000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C183">
+        <v>43</v>
+      </c>
+      <c r="D183">
+        <v>49.45</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C184">
+        <v>44</v>
+      </c>
+      <c r="D184">
+        <v>49.296999999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C185">
+        <v>45</v>
+      </c>
+      <c r="D185">
+        <v>49.572000000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C186">
+        <v>46</v>
+      </c>
+      <c r="D186">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C187">
+        <v>47</v>
+      </c>
+      <c r="D187">
+        <v>49.679000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C188">
+        <v>48</v>
+      </c>
+      <c r="D188">
+        <v>49.511000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C189">
+        <v>49</v>
+      </c>
+      <c r="D189">
+        <v>49.357999999999997</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C190">
+        <v>50</v>
+      </c>
+      <c r="D190">
+        <v>49.603000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C191">
+        <v>51</v>
+      </c>
+      <c r="D191">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C192">
+        <v>52</v>
+      </c>
+      <c r="D192">
+        <v>49.694000000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C193">
+        <v>53</v>
+      </c>
+      <c r="D193">
+        <v>49.511000000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C194">
+        <v>54</v>
+      </c>
+      <c r="D194">
+        <v>49.755000000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C195">
+        <v>55</v>
+      </c>
+      <c r="D195">
+        <v>49.542000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C196">
+        <v>56</v>
+      </c>
+      <c r="D196">
+        <v>50.91</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C197">
+        <v>57</v>
+      </c>
+      <c r="D197">
+        <v>49.587000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C198">
+        <v>58</v>
+      </c>
+      <c r="D198">
+        <v>50.91</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C199">
+        <v>59</v>
+      </c>
+      <c r="D199">
+        <v>49.603000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C200">
+        <v>60</v>
+      </c>
+      <c r="D200">
+        <v>50.152000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C201">
+        <v>61</v>
+      </c>
+      <c r="D201">
+        <v>49.542000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C202">
+        <v>62</v>
+      </c>
+      <c r="D202">
+        <v>50.183</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C203">
+        <v>63</v>
+      </c>
+      <c r="D203">
+        <v>49.542000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C204">
+        <v>64</v>
+      </c>
+      <c r="D204">
+        <v>50.167000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C205">
+        <v>65</v>
+      </c>
+      <c r="D205">
+        <v>49.572000000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C206">
+        <v>66</v>
+      </c>
+      <c r="D206">
+        <v>50.213000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C207">
+        <v>67</v>
+      </c>
+      <c r="D207">
+        <v>49.603000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C208">
+        <v>68</v>
+      </c>
+      <c r="D208">
+        <v>50.152000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C209">
+        <v>69</v>
+      </c>
+      <c r="D209">
+        <v>49.603000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C210">
+        <v>70</v>
+      </c>
+      <c r="D210">
+        <v>50.122</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C211">
+        <v>71</v>
+      </c>
+      <c r="D211">
+        <v>49.603000000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C212">
+        <v>72</v>
+      </c>
+      <c r="D212">
+        <v>50.152000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C213">
+        <v>73</v>
+      </c>
+      <c r="D213">
+        <v>49.633000000000003</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C214">
+        <v>74</v>
+      </c>
+      <c r="D214">
+        <v>50.167000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C215">
+        <v>75</v>
+      </c>
+      <c r="D215">
+        <v>49.969000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C216">
+        <v>76</v>
+      </c>
+      <c r="D216">
+        <v>50.183</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C217">
+        <v>77</v>
+      </c>
+      <c r="D217">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C218">
+        <v>78</v>
+      </c>
+      <c r="D218">
+        <v>50.183</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C219">
+        <v>79</v>
+      </c>
+      <c r="D219">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C220">
+        <v>80</v>
+      </c>
+      <c r="D220">
+        <v>50.183</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C221">
+        <v>81</v>
+      </c>
+      <c r="D221">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C222">
+        <v>82</v>
+      </c>
+      <c r="D222">
+        <v>49.755000000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C223">
+        <v>83</v>
+      </c>
+      <c r="D223">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C224">
+        <v>84</v>
+      </c>
+      <c r="D224">
+        <v>49.786000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C225">
+        <v>85</v>
+      </c>
+      <c r="D225">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C226">
+        <v>86</v>
+      </c>
+      <c r="D226">
+        <v>49.755000000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C227">
+        <v>87</v>
+      </c>
+      <c r="D227">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C228">
+        <v>88</v>
+      </c>
+      <c r="D228">
+        <v>49.771000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C229">
+        <v>89</v>
+      </c>
+      <c r="D229">
+        <v>50.305</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C230">
+        <v>90</v>
+      </c>
+      <c r="D230">
+        <v>49.786000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C231">
+        <v>91</v>
+      </c>
+      <c r="D231">
+        <v>50.305</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C232">
+        <v>92</v>
+      </c>
+      <c r="D232">
+        <v>49.771000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C233">
+        <v>93</v>
+      </c>
+      <c r="D233">
+        <v>50.305</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C234">
+        <v>94</v>
+      </c>
+      <c r="D234">
+        <v>49.762999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C235">
+        <v>95</v>
+      </c>
+      <c r="D235">
+        <v>50.305</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C236">
+        <v>96</v>
+      </c>
+      <c r="D236">
+        <v>49.664000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C237">
+        <v>97</v>
+      </c>
+      <c r="D237">
+        <v>50.289000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C238">
+        <v>98</v>
+      </c>
+      <c r="D238">
+        <v>49.664000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C239">
+        <v>99</v>
+      </c>
+      <c r="D239">
+        <v>50.305</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C240">
+        <v>100</v>
+      </c>
+      <c r="D240">
+        <v>49.664000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C241">
+        <v>101</v>
+      </c>
+      <c r="D241">
+        <v>50.305</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C242">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="286" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="287" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="288" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>28.724</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C289">
+        <v>4</v>
+      </c>
+      <c r="D289">
+        <v>30.356999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C290">
+        <v>5</v>
+      </c>
+      <c r="D290">
+        <v>32.81</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C291">
+        <v>6</v>
+      </c>
+      <c r="D291">
+        <v>33.637999999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C292">
+        <v>7</v>
+      </c>
+      <c r="D292">
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C293">
+        <v>8</v>
+      </c>
+      <c r="D293">
+        <v>37.637</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C294">
+        <v>9</v>
+      </c>
+      <c r="D294">
+        <v>38.887999999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C295">
+        <v>10</v>
+      </c>
+      <c r="D295">
+        <v>41.146999999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C296">
+        <v>11</v>
+      </c>
+      <c r="D296">
+        <v>42.338000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C297">
+        <v>12</v>
+      </c>
+      <c r="D297">
+        <v>44.47</v>
+      </c>
+    </row>
+    <row r="298" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C298">
+        <v>13</v>
+      </c>
+      <c r="D298">
+        <v>44.902000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C299">
+        <v>14</v>
+      </c>
+      <c r="D299">
+        <v>46.427999999999997</v>
+      </c>
+    </row>
+    <row r="300" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C300">
+        <v>15</v>
+      </c>
+      <c r="D300">
+        <v>47.283000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C301">
+        <v>16</v>
+      </c>
+      <c r="D301">
+        <v>48.640999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C302">
+        <v>17</v>
+      </c>
+      <c r="D302">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C303">
+        <v>18</v>
+      </c>
+      <c r="D303">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C304">
+        <v>19</v>
+      </c>
+      <c r="D304">
+        <v>51.220999999999997</v>
+      </c>
+    </row>
+    <row r="305" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C305">
+        <v>20</v>
+      </c>
+      <c r="D305">
         <v>51.648000000000003</v>
       </c>
     </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G11">
-        <v>55.54</v>
-      </c>
-    </row>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G12">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C306">
+        <v>21</v>
+      </c>
+      <c r="D306">
+        <v>52.747</v>
+      </c>
+    </row>
+    <row r="307" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C307">
+        <v>22</v>
+      </c>
+      <c r="D307">
+        <v>53.21</v>
+      </c>
+    </row>
+    <row r="308" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C308">
+        <v>23</v>
+      </c>
+      <c r="D308">
+        <v>54.180999999999997</v>
+      </c>
+    </row>
+    <row r="309" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C309">
+        <v>24</v>
+      </c>
+      <c r="D309">
+        <v>54.165999999999997</v>
+      </c>
+    </row>
+    <row r="310" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C310">
+        <v>25</v>
+      </c>
+      <c r="D310">
+        <v>55.67</v>
+      </c>
+    </row>
+    <row r="311" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C311">
+        <v>26</v>
+      </c>
+      <c r="D311">
+        <v>54.822000000000003</v>
+      </c>
+    </row>
+    <row r="312" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C312">
+        <v>27</v>
+      </c>
+      <c r="D312">
+        <v>55.768999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C313">
+        <v>28</v>
+      </c>
+      <c r="D313">
+        <v>55.555</v>
+      </c>
+    </row>
+    <row r="314" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C314">
+        <v>29</v>
+      </c>
+      <c r="D314">
+        <v>56.470999999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C315">
+        <v>30</v>
+      </c>
+      <c r="D315">
+        <v>56.256999999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C316">
+        <v>31</v>
+      </c>
+      <c r="D316">
+        <v>57.112000000000002</v>
+      </c>
+    </row>
+    <row r="317" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C317">
+        <v>32</v>
+      </c>
+      <c r="D317">
+        <v>56.837000000000003</v>
+      </c>
+    </row>
+    <row r="318" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C318">
+        <v>33</v>
+      </c>
+      <c r="D318">
+        <v>57.631</v>
+      </c>
+    </row>
+    <row r="319" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C319">
+        <v>34</v>
+      </c>
+      <c r="D319">
+        <v>57.356000000000002</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C320">
+        <v>35</v>
+      </c>
+      <c r="D320">
+        <v>58.119</v>
+      </c>
+    </row>
+    <row r="321" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C321">
+        <v>36</v>
+      </c>
+      <c r="D321">
+        <v>57.783000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C322">
+        <v>37</v>
+      </c>
+      <c r="D322">
         <v>58.15</v>
       </c>
     </row>
-    <row r="13" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G13">
-        <v>60.47</v>
-      </c>
-    </row>
-    <row r="14" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G14">
-        <v>62.759</v>
-      </c>
-    </row>
-    <row r="15" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G15">
-        <v>64.316000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G16">
-        <v>65.14</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17">
-        <v>66.207999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18">
-        <v>67.123999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19">
-        <v>67.611999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20">
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21">
-        <v>68.710999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22">
-        <v>68.894000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23">
-        <v>68.956000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24">
-        <v>69.260999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G25">
-        <v>69.474000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26">
-        <v>69.536000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27">
-        <v>69.412999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G28">
-        <v>69.81</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G29">
-        <v>69.840999999999994</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G30">
-        <v>69.2</v>
-      </c>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G31">
-        <v>69.81</v>
-      </c>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G32">
-        <v>70.540000000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33">
-        <v>69.962999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34">
-        <v>69.992999999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35">
-        <v>70.177000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37">
-        <v>69.902000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G38">
-        <v>69.971000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G39">
-        <v>70.540000000000006</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G40">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G41">
-        <v>69.962999999999994</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G42">
-        <v>70.146000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G43">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G44">
-        <v>69.902000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G45">
-        <v>70.146000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G46">
-        <v>69.887</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G47">
-        <v>69.870999999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G48">
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G49">
-        <v>70.177000000000007</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G50">
-        <v>69.962999999999994</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G51">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G52">
-        <v>70.177000000000007</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G53">
-        <v>70.849999999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G54">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G55">
-        <v>69.992999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G56">
-        <v>70.540000000000006</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G57">
-        <v>69.962999999999994</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G58">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G59">
-        <v>70.177000000000007</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G60">
-        <v>70.540000000000006</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G61">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G62">
-        <v>69.992999999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G63">
-        <v>70.540000000000006</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G64">
-        <v>69.962999999999994</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G65">
-        <v>69.962999999999994</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G66">
-        <v>70.146000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G67">
-        <v>69.962999999999994</v>
-      </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G68">
-        <v>69.870999999999995</v>
-      </c>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G69">
-        <v>69.947999999999993</v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G70">
-        <v>70.239999999999995</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G71">
-        <v>69.902000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G72">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G73">
-        <v>70.114999999999995</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G74">
-        <v>69.902000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G75">
-        <v>69.870999999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G76">
-        <v>69.992999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G77">
-        <v>70.540000000000006</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G78">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G79">
-        <v>69.962999999999994</v>
-      </c>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G80">
-        <v>70.146000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G81">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G82">
-        <v>69.902000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G83">
-        <v>70.146000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G84">
-        <v>70.540000000000006</v>
-      </c>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G85">
-        <v>69.932000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G86">
-        <v>69.992999999999995</v>
+    <row r="323" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C323">
+        <v>38</v>
+      </c>
+      <c r="D323">
+        <v>58.119</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C324">
+        <v>39</v>
+      </c>
+      <c r="D324">
+        <v>58.454999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C325">
+        <v>40</v>
+      </c>
+      <c r="D325">
+        <v>58.423999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C326">
+        <v>41</v>
+      </c>
+      <c r="D326">
+        <v>58.698999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C327">
+        <v>42</v>
+      </c>
+      <c r="D327">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C328">
+        <v>43</v>
+      </c>
+      <c r="D328">
+        <v>58.942999999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C329">
+        <v>44</v>
+      </c>
+      <c r="D329">
+        <v>59.188000000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C330">
+        <v>45</v>
+      </c>
+      <c r="D330">
+        <v>59.96</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C331">
+        <v>46</v>
+      </c>
+      <c r="D331">
+        <v>59.371000000000002</v>
+      </c>
+    </row>
+    <row r="332" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C332">
+        <v>47</v>
+      </c>
+      <c r="D332">
+        <v>59.264000000000003</v>
+      </c>
+    </row>
+    <row r="333" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C333">
+        <v>48</v>
+      </c>
+      <c r="D333">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="334" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C334">
+        <v>49</v>
+      </c>
+      <c r="D334">
+        <v>59.156999999999996</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C335">
+        <v>50</v>
+      </c>
+      <c r="D335">
+        <v>59.615000000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C336">
+        <v>51</v>
+      </c>
+      <c r="D336">
+        <v>59.279000000000003</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C337">
+        <v>52</v>
+      </c>
+      <c r="D337">
+        <v>59.722000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C338">
+        <v>53</v>
+      </c>
+      <c r="D338">
+        <v>59.371000000000002</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C339">
+        <v>54</v>
+      </c>
+      <c r="D339">
+        <v>59.813000000000002</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C340">
+        <v>55</v>
+      </c>
+      <c r="D340">
+        <v>59.462000000000003</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C341">
+        <v>56</v>
+      </c>
+      <c r="D341">
+        <v>60.12</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C342">
+        <v>57</v>
+      </c>
+      <c r="D342">
+        <v>59.493000000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C343">
+        <v>58</v>
+      </c>
+      <c r="D343">
+        <v>60.12</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C344">
+        <v>59</v>
+      </c>
+      <c r="D344">
+        <v>59.523000000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C345">
+        <v>60</v>
+      </c>
+      <c r="D345">
+        <v>60.73</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C346">
+        <v>61</v>
+      </c>
+      <c r="D346">
+        <v>59.63</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C347">
+        <v>62</v>
+      </c>
+      <c r="D347">
+        <v>60.134</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C348">
+        <v>63</v>
+      </c>
+      <c r="D348">
+        <v>59.645000000000003</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C349">
+        <v>64</v>
+      </c>
+      <c r="D349">
+        <v>60.164000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C350">
+        <v>65</v>
+      </c>
+      <c r="D350">
+        <v>59.706000000000003</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C351">
+        <v>66</v>
+      </c>
+      <c r="D351">
+        <v>60.164000000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C352">
+        <v>67</v>
+      </c>
+      <c r="D352">
+        <v>59.706000000000003</v>
+      </c>
+    </row>
+    <row r="353" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C353">
+        <v>68</v>
+      </c>
+      <c r="D353">
+        <v>59.844000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C354">
+        <v>69</v>
+      </c>
+      <c r="D354">
+        <v>59.706000000000003</v>
+      </c>
+    </row>
+    <row r="355" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C355">
+        <v>70</v>
+      </c>
+      <c r="D355">
+        <v>59.850999999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C356">
+        <v>71</v>
+      </c>
+      <c r="D356">
+        <v>59.706000000000003</v>
+      </c>
+    </row>
+    <row r="357" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C357">
+        <v>72</v>
+      </c>
+      <c r="D357">
+        <v>59.89</v>
+      </c>
+    </row>
+    <row r="358" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C358">
+        <v>73</v>
+      </c>
+      <c r="D358">
+        <v>59.752000000000002</v>
+      </c>
+    </row>
+    <row r="359" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C359">
+        <v>74</v>
+      </c>
+      <c r="D359">
+        <v>59.92</v>
+      </c>
+    </row>
+    <row r="360" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C360">
+        <v>75</v>
+      </c>
+      <c r="D360">
+        <v>60.119</v>
+      </c>
+    </row>
+    <row r="361" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C361">
+        <v>76</v>
+      </c>
+      <c r="D361">
+        <v>59.905000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C362">
+        <v>77</v>
+      </c>
+      <c r="D362">
+        <v>60.103000000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C363">
+        <v>78</v>
+      </c>
+      <c r="D363">
+        <v>59.905000000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C364">
+        <v>79</v>
+      </c>
+      <c r="D364">
+        <v>60.103000000000002</v>
+      </c>
+    </row>
+    <row r="365" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C365">
+        <v>80</v>
+      </c>
+      <c r="D365">
+        <v>59.706000000000003</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C366">
+        <v>81</v>
+      </c>
+      <c r="D366">
+        <v>60.103000000000002</v>
+      </c>
+    </row>
+    <row r="367" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C367">
+        <v>82</v>
+      </c>
+      <c r="D367">
+        <v>59.706000000000003</v>
+      </c>
+    </row>
+    <row r="368" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C368">
+        <v>83</v>
+      </c>
+      <c r="D368">
+        <v>60.134</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C369">
+        <v>84</v>
+      </c>
+      <c r="D369">
+        <v>59.737000000000002</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C370">
+        <v>85</v>
+      </c>
+      <c r="D370">
+        <v>60.140999999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C371">
+        <v>86</v>
+      </c>
+      <c r="D371">
+        <v>59.737000000000002</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C372">
+        <v>87</v>
+      </c>
+      <c r="D372">
+        <v>60.279000000000003</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C373">
+        <v>88</v>
+      </c>
+      <c r="D373">
+        <v>59.737000000000002</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C374">
+        <v>89</v>
+      </c>
+      <c r="D374">
+        <v>60.256</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C375">
+        <v>90</v>
+      </c>
+      <c r="D375">
+        <v>59.737000000000002</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C376">
+        <v>91</v>
+      </c>
+      <c r="D376">
+        <v>60.256</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C377">
+        <v>92</v>
+      </c>
+      <c r="D377">
+        <v>59.737000000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C378">
+        <v>93</v>
+      </c>
+      <c r="D378">
+        <v>60.271000000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C379">
+        <v>94</v>
+      </c>
+      <c r="D379">
+        <v>59.829000000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C380">
+        <v>95</v>
+      </c>
+      <c r="D380">
+        <v>60.286000000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C381">
+        <v>96</v>
+      </c>
+      <c r="D381">
+        <v>59.829000000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C382">
+        <v>97</v>
+      </c>
+      <c r="D382">
+        <v>60.286000000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C383">
+        <v>98</v>
+      </c>
+      <c r="D383">
+        <v>59.829000000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C384">
+        <v>99</v>
+      </c>
+      <c r="D384">
+        <v>59.973999999999997</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C385">
+        <v>100</v>
+      </c>
+      <c r="D385">
+        <v>59.829000000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C386">
+        <v>101</v>
+      </c>
+      <c r="D386">
+        <v>60.286000000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C387">
+        <v>102</v>
+      </c>
+      <c r="D387">
+        <v>59.768000000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C388">
+        <v>103</v>
+      </c>
+      <c r="D388">
+        <v>60.1</v>
       </c>
     </row>
   </sheetData>
